--- a/biology/Botanique/Déforestation_en_Haïti/Déforestation_en_Haïti.xlsx
+++ b/biology/Botanique/Déforestation_en_Haïti/Déforestation_en_Haïti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La déforestation en Haïti est la destruction progressive de la végétation d'Haïti par les différentes générations, mais aussi par des éléments naturels. Se continuant au XXIe siècle, son ampleur et ses diverses conséquences permettent de parler de « désastre écologique ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la découverte d'Hispaniola par Christophe Colomb au XVe siècle, on estime que 80 % de l'île était boisée[1].
-Dès l'époque de la colonisation française, la révolution du café de Saint-Domingue à partir de 1730[1], qui produit la moitié du café mondial et accélère l'histoire de la culture du café, entraîne une course spéculative à l'achat de terres sur les mornes, ce qui acidifie les sols et provoque une érosion. La culture du café a occupé un quart de la superficie haïtienne.
-À la suite de l'indépendance d'Haïti, le pays doit payer une très lourde indemnité à la France, de 150 millions de francs-or. Le pays exporte des bois pour payer cette dette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la découverte d'Hispaniola par Christophe Colomb au XVe siècle, on estime que 80 % de l'île était boisée.
+Dès l'époque de la colonisation française, la révolution du café de Saint-Domingue à partir de 1730, qui produit la moitié du café mondial et accélère l'histoire de la culture du café, entraîne une course spéculative à l'achat de terres sur les mornes, ce qui acidifie les sols et provoque une érosion. La culture du café a occupé un quart de la superficie haïtienne.
+À la suite de l'indépendance d'Haïti, le pays doit payer une très lourde indemnité à la France, de 150 millions de francs-or. Le pays exporte des bois pour payer cette dette.
 En 1923, il est reporté que les forêts couvraient près de 60 % du pays. De source incertaine, cette information semble liée à l'Occupation d'Haïti par les États-Unis.[réf. nécessaire]
-Pendant la Seconde Guerre mondiale, les Américains participent à la déforestation en plantant de l'hévéa, nécessaire à la poursuite de la guerre[1].
-Sous la dictature de François Duvalier et Jean-Claude Duvalier, l'exploitation industrielle des bois est mise en place, sans que le reboisement soit organisé[1].
-Au XXIe siècle, l'extrême pauvreté des Haïtiens les pousse à défricher la forêt pour faire place à de l'agriculture vivrière[1]. De plus, le charbon de bois est toujours la principale source d'énergie[réf. nécessaire].
+Pendant la Seconde Guerre mondiale, les Américains participent à la déforestation en plantant de l'hévéa, nécessaire à la poursuite de la guerre.
+Sous la dictature de François Duvalier et Jean-Claude Duvalier, l'exploitation industrielle des bois est mise en place, sans que le reboisement soit organisé.
+Au XXIe siècle, l'extrême pauvreté des Haïtiens les pousse à défricher la forêt pour faire place à de l'agriculture vivrière. De plus, le charbon de bois est toujours la principale source d'énergie[réf. nécessaire].
 En 1954, l'ouragan Hazel tua plus de 1 000 personnes en Haïti, détruisit plusieurs villes et villages ainsi qu'environ 40 % des caféiers et 50 % des cacaoyers.
-En 2006, une information estime que les forêts couvrent moins de 2 % de la superficie haïtienne[2],[1]. Bien que largement reprise par les médias, elle semble cependant remise en question, et des études par imagerie satellite de 2010 estiment plutôt aujourd'hui cette couverture aux alentours de 30%[3]. Tout ceci reste sujet à controverse, notamment sur la différenciation entre forêt et forêt primaire qu'Haïti aurait presque perdue en totalité représentant moins de 1 % du pays en 2016 [4]. Jusqu'à récemment, le gouvernement a peu fait pour arrêter la déforestation.
+En 2006, une information estime que les forêts couvrent moins de 2 % de la superficie haïtienne,. Bien que largement reprise par les médias, elle semble cependant remise en question, et des études par imagerie satellite de 2010 estiment plutôt aujourd'hui cette couverture aux alentours de 30%. Tout ceci reste sujet à controverse, notamment sur la différenciation entre forêt et forêt primaire qu'Haïti aurait presque perdue en totalité représentant moins de 1 % du pays en 2016 . Jusqu'à récemment, le gouvernement a peu fait pour arrêter la déforestation.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Causes principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Haïti n’a pas toujours été une terre dévastée par la coupe effrénée des arbres d’après nos historiens[Lesquels ?]. Elle était habitée par les Arawaks et les Taïnos avant l’arrivée de Christophe Colomb en 1492 au môle Saint-Nicolas. Ces indigènes vivaient des fruits de la terre et s’adonnaient à la chasse et à la pêche. Ils étaient moins d’un million d’habitants sur toute l’île. « Nos forêts où abondent des arbres fruitiers de toutes sortes les dispensaient des travaux pénibles de l'agriculture. Ils se livraient plutôt à la pêche et à la chasse dont les produits, avec la patate, le maïs et la cassave, servaient à leur alimentation ». En effet, ceci explique pourquoi la coupe des arbres à des fins agricoles n’était pas leur préoccupation. De plus, ils ignoraient l’existence d’autres mondes pour pouvoir faire du commerce avec eux. L’arrivée des conquistadors espagnols a changé beaucoup de choses sur l’île. 
 Selon Paul Moral dans «Le Paysan Haïtien», la colonisation qui a enrichi la flore à Saint Domingue y avait également amorcé le déboisement, surtout après 1770 avec les progrès rapides et quelque peu désordonnés de la spéculation caféière. Les auteurs de la fin de la période coloniale dénonçaient déjà les méfaits de la déforestation des mornes. « Des forêts  entières furent abattues pour céder leur place à l’arbuste qui semble s’être approprié toutes les montagnes de la colonie ». Après 1804, le déboisement allait prendre une allure dévastatrice. Repris sur le site bureau des mines.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La déforestation a entraîné l'érosion du sol, ce qui a diminué les rendements agricoles et entraîné des glissements de terrain meurtriers en raison des pluies diluviennes qui ravinent et déferlent faute d'avoir été absorbées ou au moins freinées par la nature environnante.
 L'environnement naturel dans les villes est écrasé par la présence de l'homme et souffre du manque d'assainissement. De vastes bidonvilles, en particulier autour de la capitale, Port-au-Prince, sont peuplés de personnes vivant dans la misère et l'insalubrité. La nature recule profondément face à la surpopulation urbaine et péri-urbaine.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Approche globale des conséquences de la déforestation en Haiti</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coupe des arbres contribue à rendre plus vulnérable le milieu haïtien et la déforestation a un impact significatif sur l'intégrité des écosystèmes dans le monde entier (Achard et al, 2002; Nepstad et al, 1999)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coupe des arbres contribue à rendre plus vulnérable le milieu haïtien et la déforestation a un impact significatif sur l'intégrité des écosystèmes dans le monde entier (Achard et al, 2002; Nepstad et al, 1999).
 Conséquence pour Haïti
 Socio-économique
 Sur le plan socio-économique, le déboisement provoque la chute considérable des systèmes de productions, le chômage pour les agriculteurs et  donc la pauvreté accrus. Depuis 1975, les surfaces cultivables ont diminué de moitié en Haïti alors que plus de 70 % de la population pratique une agriculture de survie et 80 % vit avec moins de 2 dollars par jour. De plus quand viennent des catastrophes liées à la déforestation, ceux-ci augmentent les charges de l’état qui est toujours en situation de gérer l’urgence selon EDDY Saint-gilles.  
@@ -635,7 +655,7 @@
 La dégradation sans le bois énergie intervient  lorsqu’elle est pratiquée pour faciliter la plantation de caféiers, pour la récolte de bois d’œuvre destinés à l’exportation et pour permettre l’implantation de cultures vivrières.  Cette déforestation combinée aux actions des pluies tropicales, à la forte proportion des pentes abruptes et à l’absence de pratiques conversationnistes produit l’érosion. L’accumulation  des quantités énormes de sols dans les plaines à un rythme trop rapide provoque le mauvais drainage des sols qui en accumulant trop de sels conduit à la salinisation de ceux-ci. La salinisation des sols est un des principaux facteurs conduisant à la désertification.  
 La dégradation par le bois énergie intervient lorsqu’on pratique la surexploitation de certaines aires de production, l’exploitation de la mangrove et de la montagne humide. Le fait de ne disposer d’aucune connaissance   sur le potentiel de production durable de charbon de bois constitue aussi une forme de dégradation. En effet, les sites, les superficies, les rendements, les espèces et les fréquences de coupe sont totalement inconnus. (Jean André Victor, 1997).
 La biodiversité en Haïti
-La déforestation contribue à fragiliser considérablement les ressources naturelles, si l'on en croit l'agronome Norris. Aussi, assiste-t-on à l'érosion du sol, à la diminution des ressources en eau puisque l'infiltration de l'eau dans le sol baisse[6].
+La déforestation contribue à fragiliser considérablement les ressources naturelles, si l'on en croit l'agronome Norris. Aussi, assiste-t-on à l'érosion du sol, à la diminution des ressources en eau puisque l'infiltration de l'eau dans le sol baisse.
 -	Des espèces (fruitières, forestières, herbacées…) sont en voie de disparition, menacées ou devenues rares.
 -	Au niveau de la faune: 10/17 espèces endémiques (mammifères, reptiles et oiseaux ont déjà disparu. 
 Pour M. Norris, l'abattage des arbres contribue à détruire l'équilibre de l'écosystème. « Un arbre, c'est un point d'interaction entre différentes ressources. À travers ses racines, il retient le sol. Il joue aussi un rôle important dans la régulation du cycle de l'eau. C'est enfin un élément qui sert d'abri à la flore et à la faune. Bref c'est un élément régulateur des autres ressources naturelles que sont la terre, l'eau, l'air, la flore et la faune», dit-il. 
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,11 +693,13 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1980, le projet Pied-bois (Projè Pyebwa en créole haïtien) avait permis de planter environ 25 millions d'arbres, mais pour chaque arbre planté, beaucoup plus étaient coupés, d'où un échec de ce projet.
 En 1999, un plan d'action pour l'environnement, a proposé d'arrêter la déforestation, en développant des sources de carburants alternatives. Jusqu'ici, cependant, l'instabilité politique et le manque de financement ont limité l'impact de cet effort de réforme. 
-En 2010, après le tremblement de terre d'Haïti de 2010, le Québec s'est associé au projet "Ti gren fe gwo pyebwa" (petites graines font de gros pied-bois (plantation))[7].
+En 2010, après le tremblement de terre d'Haïti de 2010, le Québec s'est associé au projet "Ti gren fe gwo pyebwa" (petites graines font de gros pied-bois (plantation)).
 </t>
         </is>
       </c>
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Ha%C3%AFti</t>
+          <t>Déforestation_en_Haïti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,15 +730,90 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces en danger critique d'extinction (CR)
-Six espèces :
+          <t>Espèces en danger critique d'extinction (CR)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six espèces :
 Attalea crassispatha, Manilkara gonavensis, Nectandra caudatoacuminata, Nectandra pulchra, 
 Pseudophoenix lediniana et Juniperus gracilior subsp. ekmanii.
-Espèces en danger (EN)
-Six espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déforestation_en_Haïti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9forestation_en_Ha%C3%AFti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Flore menacée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six espèces :
 Copernicia ekmanii, Ekmanianthe longiflora, Guaiacum officinale, Guaiacum sanctum, Juniperus gracilior subsp. gracilor, Pouteria hotteana.
-Espèces vulnérables (VU)
-Dix-sept espèces :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déforestation_en_Haïti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9forestation_en_Ha%C3%AFti</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Flore menacée</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dix-sept espèces :
 Albizia berteriana, Albizia leonardii, Antirhea radiata, Calyptranthes ekmanii, Catalpa brevipes, Cedrela odorata, Cinnamomum parviflorum, Cleyera bolleana, Cleyera vaccinioides, Guarea
 sphenophylla, Huertea cubensis, Juglans jamaicensis, Manilkara valenzuelana, Mappia racemosa,
 Picrasma excelsa, Podocarpus aristulatus, et Senna domingensis.
